--- a/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbdnet10082\Desktop\NedBank-Automation\FreeCRMTest\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536F292B-51F5-409E-A26A-D99CCC265963}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9B2863-5C73-4C97-B5CD-A7CDAB1750E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7924792A-FCCD-47A4-97F9-53B31BC4C523}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>title</t>
   </si>
@@ -47,21 +47,6 @@
     <t>Miss</t>
   </si>
   <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Prof.</t>
-  </si>
-  <si>
-    <t>Sir</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
     <t>Lucky</t>
   </si>
   <si>
@@ -78,51 +63,6 @@
   </si>
   <si>
     <t>Cybage</t>
-  </si>
-  <si>
-    <t>Pritam</t>
-  </si>
-  <si>
-    <t>Nikam</t>
-  </si>
-  <si>
-    <t>Capita</t>
-  </si>
-  <si>
-    <t>Niket</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>Infosys</t>
-  </si>
-  <si>
-    <t>Javeed</t>
-  </si>
-  <si>
-    <t>Khan</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Khanna</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Namrata</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Amazon</t>
   </si>
 </sst>
 </file>
@@ -511,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64CD621-4618-4CB4-9A81-E3DA29CC7C18}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,13 +484,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,89 +498,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
